--- a/HU061 Matriz de Pruebas (Traspaso, Fondeo y Movimiento Manual).xlsx
+++ b/HU061 Matriz de Pruebas (Traspaso, Fondeo y Movimiento Manual).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ragdn\OneDrive\Documentos\Cacao\Requerimientos\HU061 - Cuenta Eje SAAS ES\Liberación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollo\DNU\Documentacion\HU061 Cuenta Eje SAAS en Prepago SAAS ES\Repo\HU061_Desarrollo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05713B4-FDF7-416D-A47D-A0DA3E94CC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D420BBB-AF17-45FF-B185-AEC5B1806A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ciclo 1" sheetId="3" r:id="rId1"/>
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>Totem</t>
   </si>
@@ -433,9 +433,6 @@
     <t>Configurar el uso de la cuenta eje SAAS para el producto Prepago SAAS con el modelo Empresa - Subempresa.</t>
   </si>
   <si>
-    <t>Permitir un movimiento manual de una empresa o sub empresa de un mismo cliente.</t>
-  </si>
-  <si>
     <t>1.- Contar con acceso y permisos necesarios para Central Administrativa.
 2.- Contar con acceso al WebService para ejecutar el método traspaso tarjetas.</t>
   </si>
@@ -486,9 +483,6 @@
 }</t>
   </si>
   <si>
-    <t>1.- Contar con acceso y permisos necesarios para Central Administrativa.</t>
-  </si>
-  <si>
     <t>El fondeo de una tarjeta, deberá ser permitido sin hacer afectación sobre la cuenta SaaS.</t>
   </si>
   <si>
@@ -522,6 +516,43 @@
     "Importe": "30.00",
     "SaldoFinal": 575.00,
     "Moneda": null,
+    "CodRespuesta": "0000",
+    "DescRespuesta": "Aprobada"
+}</t>
+  </si>
+  <si>
+    <t>Permitir un movimiento manual de un TH que pertenece a una empresa.</t>
+  </si>
+  <si>
+    <t>{
+    "IDSolicitud": "0",
+    "ClaveMovimiento": "T5",
+    "Tarjeta": "9900012036066218",
+    "MedioAcceso": "",
+    "Importe": "10.00",
+    "SaldoFinal": 310.00,
+    "Fecha": "2022-06-20 18:44:28",
+    "Referencia": "",
+    "CodRespuesta": "0000",
+    "DescRespuesta": "Aprobada"
+}</t>
+  </si>
+  <si>
+    <t>La ejecución del servicio de movimiento manual, debera ser permitido sin hacer afectación a la cuenta SAAS.</t>
+  </si>
+  <si>
+    <t>Permitir un movimiento manual de un TH que pertenece a una Subempresa.</t>
+  </si>
+  <si>
+    <t>{
+    "IDSolicitud": "0",
+    "ClaveMovimiento": "T5",
+    "Tarjeta": "9900012048767691",
+    "MedioAcceso": "",
+    "Importe": "10.00",
+    "SaldoFinal": 50.00,
+    "Fecha": "2022-06-20 18:46:23",
+    "Referencia": "",
     "CodRespuesta": "0000",
     "DescRespuesta": "Aprobada"
 }</t>
@@ -1116,6 +1147,9 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1154,9 +1188,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1377,6 +1408,94 @@
         <a:xfrm>
           <a:off x="22703425" y="5975960"/>
           <a:ext cx="5696745" cy="2333951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6654452</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3575137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6107237</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>24312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01B5C25-5497-E013-950A-65CE17A4C01C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22442466" y="16766610"/>
+          <a:ext cx="6133333" cy="2790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5876190</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>148414</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0490B4AA-2FD6-EC7C-D23B-D5F2B5903528}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22468562" y="19532774"/>
+          <a:ext cx="5876190" cy="2666667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1901,10 +2020,10 @@
   <dimension ref="A1:J843"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1923,17 +2042,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="22" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
       <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1941,11 +2060,11 @@
         <v>49</v>
       </c>
       <c r="B2" s="40"/>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
       <c r="F2" s="48" t="s">
         <v>6</v>
       </c>
@@ -1961,11 +2080,11 @@
         <v>45</v>
       </c>
       <c r="B3" s="40"/>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="42"/>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
@@ -1977,11 +2096,11 @@
         <v>43</v>
       </c>
       <c r="B4" s="41"/>
-      <c r="C4" s="61">
+      <c r="C4" s="62">
         <v>1</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="43"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
@@ -2027,22 +2146,22 @@
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="53" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J6" s="29"/>
     </row>
@@ -2053,107 +2172,127 @@
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="53" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10" ht="291.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="53" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:10" ht="300.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="53" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" s="29"/>
     </row>
-    <row r="10" spans="1:10" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="198.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="28"/>
+      <c r="G10" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="J10" s="29"/>
     </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
+    <row r="11" spans="1:10" ht="198.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26">
+        <v>6</v>
+      </c>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="28"/>
+      <c r="D11" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>72</v>
+      </c>
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12184,14 +12323,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>

--- a/HU061 Matriz de Pruebas (Traspaso, Fondeo y Movimiento Manual).xlsx
+++ b/HU061 Matriz de Pruebas (Traspaso, Fondeo y Movimiento Manual).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desarrollo\DNU\Documentacion\HU061 Cuenta Eje SAAS en Prepago SAAS ES\Repo\HU061_Desarrollo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ragdn\OneDrive\Documentos\Cacao\Requerimientos\HU061 - Cuenta Eje SAAS ES\Desarrollo\HU061_Desarrollo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D420BBB-AF17-45FF-B185-AEC5B1806A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F7E9A1-3710-4A7A-86D1-20820C8C058F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ciclo 1" sheetId="3" r:id="rId1"/>
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>Totem</t>
   </si>
@@ -447,15 +447,6 @@
 </t>
   </si>
   <si>
-    <t>1.- Ingresar a Central Administrativa.
-2.- Ir al menú Las Operaciones/Colectivas.
-3.- Seleccionar al cliente considerado para la prueba y revisar la pestaña Cuentas para ver el saldo de la cuenta SaaS.
-4.- Hacer Login en el WebService CacaoParabilia con un usuario y contraseña válidos.
-5.- Utilizar tarjetas origen y destino que pertenezcas al mismo cliente considerado para la prueba.
-6.- Consumir el endpoint TraspasoTarjeta,  para comprobar funcionalidad.
-7.- Consultar nuevamente la colectiva en CA para comprobar que el saldo de la cuenta SaaS no haya sido afectado.</t>
-  </si>
-  <si>
     <t>El traspaso de fondos de una tarjeta a otra, deberá ser permitido siempre y cuando el monto no exceda el saldo de la cuenta origen.
 Así mismo, al ser dos tarjetas de un mismo cliente, la cuenta Saas no será afeactada.</t>
   </si>
@@ -557,6 +548,24 @@
     "DescRespuesta": "Aprobada"
 }</t>
   </si>
+  <si>
+    <t>1.- Ingresar a Central Administrativa.
+2.- Ir al menú Las Operaciones/Colectivas.
+3.- Seleccionar al cliente considerado para la prueba y revisar la pestaña Cuentas para ver el saldo de la cuenta SaaS.
+4.- Hacer Login en el WebService CacaoParabilia con un usuario y contraseña válidos.
+5.- Utilizar tarjetas origen y destino que pertenezcas al mismo cliente considerado para la prueba.
+6.- Consumir el endpoint api/MovimientoManual,  para comprobar funcionalidad.
+7.- Consultar nuevamente la colectiva en CA para comprobar que el saldo de la cuenta SaaS no haya sido afectado.</t>
+  </si>
+  <si>
+    <t>1.- Ingresar a Central Administrativa.
+2.- Ir al menú Las Operaciones/Colectivas.
+3.- Seleccionar al cliente considerado para la prueba y revisar la pestaña Cuentas para ver el saldo de la cuenta SaaS.
+4.- Hacer Login en el WebService CacaoParabilia con un usuario y contraseña válidos.
+5.- Utilizar tarjetas origen y destino que pertenezcas al mismo cliente considerado para la prueba.
+6.- Consumir el endpoint api/FondearTarjeta,  para comprobar funcionalidad.
+7.- Consultar nuevamente la colectiva en CA para comprobar que el saldo de la cuenta SaaS no haya sido afectado.</t>
+  </si>
 </sst>
 </file>
 
@@ -565,7 +574,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -706,6 +715,12 @@
     <font>
       <sz val="10"/>
       <color theme="9" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1003,7 +1018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1188,6 +1203,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2020,10 +2038,10 @@
   <dimension ref="A1:J843"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2140,13 +2158,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="291.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+      <c r="A6" s="68">
         <v>1</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>55</v>
@@ -2158,21 +2176,21 @@
         <v>56</v>
       </c>
       <c r="H6" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="28" t="s">
-        <v>59</v>
-      </c>
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10" ht="291.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26">
+      <c r="A7" s="68">
         <v>2</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>55</v>
@@ -2184,21 +2202,21 @@
         <v>56</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10" ht="291.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
+      <c r="A8" s="68">
         <v>3</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>55</v>
@@ -2207,24 +2225,24 @@
         <v>17</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:10" ht="300.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
+      <c r="A9" s="68">
         <v>4</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>55</v>
@@ -2233,24 +2251,24 @@
         <v>17</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10" ht="198.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
+      <c r="A10" s="68">
         <v>5</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>55</v>
@@ -2259,24 +2277,24 @@
         <v>17</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" ht="198.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26">
+      <c r="A11" s="68">
         <v>6</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
       <c r="D11" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>55</v>
@@ -2285,13 +2303,13 @@
         <v>17</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J11" s="29"/>
     </row>
